--- a/excel_template/Fixation&ROI_template.xlsx
+++ b/excel_template/Fixation&ROI_template.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:P244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,7 @@
         <v>178</v>
       </c>
       <c r="L5" s="10" t="e">
-        <f>AVERAGEIF(F5:F245, "&gt;0")</f>
+        <f>AVERAGEIF(F5:F250, "&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M5" s="32"/>
@@ -1153,7 +1153,7 @@
         <v>179</v>
       </c>
       <c r="L6" s="10" t="e">
-        <f>AVERAGEIF(G5:G245, "&gt;0")</f>
+        <f>AVERAGEIF(G5:G250, "&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M6" s="12"/>
@@ -1174,7 +1174,7 @@
         <v>180</v>
       </c>
       <c r="L7" s="10" t="e">
-        <f>AVERAGEIF(H5:H245, "&gt;0")</f>
+        <f>AVERAGEIF(H5:H250, "&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M7" s="12"/>
@@ -1195,7 +1195,7 @@
         <v>181</v>
       </c>
       <c r="L8" s="10" t="e">
-        <f>AVERAGEIF(I5:I245,"&gt;0")</f>
+        <f>AVERAGEIF(I5:I250,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="12"/>
@@ -3861,7 +3861,7 @@
   <dimension ref="A1:S565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,7 +4028,7 @@
         <v>22</v>
       </c>
       <c r="M7" s="5" t="e">
-        <f>AVERAGEIF(G5:G1200, "'face'", F5:F1200)</f>
+        <f>AVERAGEIF(G5:G1200, "face", F5:F1200)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O7" s="12"/>
@@ -4049,7 +4049,7 @@
         <v>23</v>
       </c>
       <c r="M8" s="5" t="e">
-        <f>AVERAGEIF(G5:G1200, "'eyes'", F5:F1200)</f>
+        <f>AVERAGEIF(G5:G1200, "eyes", F5:F1200)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O8" s="12"/>
@@ -4070,7 +4070,7 @@
         <v>24</v>
       </c>
       <c r="M9" s="5" t="e">
-        <f>AVERAGEIF(G5:G1200, "'nose'", F5:F1200)</f>
+        <f>AVERAGEIF(G5:G1200, "nose", F5:F1200)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O9" s="12"/>
@@ -4091,7 +4091,7 @@
         <v>25</v>
       </c>
       <c r="M10" s="21" t="e">
-        <f>AVERAGEIF(G5:G1200, "'mouth'", F5:F1200)</f>
+        <f>AVERAGEIF(G5:G1200, "mouth", F5:F1200)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="12"/>
@@ -4112,7 +4112,7 @@
         <v>26</v>
       </c>
       <c r="M11" s="6">
-        <f>COUNTIF(G5:G1200, "'face'")</f>
+        <f>COUNTIF(G5:G1200, "face")</f>
         <v>0</v>
       </c>
       <c r="O11" s="12"/>
@@ -4133,7 +4133,7 @@
         <v>27</v>
       </c>
       <c r="M12" s="7">
-        <f>COUNTIF(G5:G1200, "'eyes'")</f>
+        <f>COUNTIF(G5:G1200, "eyes")</f>
         <v>0</v>
       </c>
       <c r="O12" s="12"/>
@@ -4154,7 +4154,7 @@
         <v>28</v>
       </c>
       <c r="M13" s="7">
-        <f>COUNTIF(G5:G1200, "'nose'")</f>
+        <f>COUNTIF(G5:G1200, "nose")</f>
         <v>0</v>
       </c>
       <c r="O13" s="12"/>
@@ -4175,7 +4175,7 @@
         <v>29</v>
       </c>
       <c r="M14" s="7">
-        <f>COUNTIF(G5:G1200, "'mouth'")</f>
+        <f>COUNTIF(G5:G1200, "mouth")</f>
         <v>0</v>
       </c>
       <c r="O14" s="12"/>
@@ -4196,7 +4196,7 @@
         <v>30</v>
       </c>
       <c r="M15" s="9" t="e">
-        <f>(SUMIF(G5:G1200, "'face'", F5:F1200)/SUM(F5:F1200))</f>
+        <f>(SUMIF(G5:G1200, "face", F5:F1200)/SUM(F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O15" s="12"/>
@@ -4217,7 +4217,7 @@
         <v>31</v>
       </c>
       <c r="M16" s="8" t="e">
-        <f>(SUMIF(G5:G1200, "'eyes'", F5:F1200)/SUM(F5:F1200))</f>
+        <f>(SUMIF(G5:G1200, "eyes", F5:F1200)/SUM(F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="12"/>
@@ -4238,7 +4238,7 @@
         <v>32</v>
       </c>
       <c r="M17" s="8" t="e">
-        <f>(SUMIF(G5:G1200, "'nose'", F5:F1200)/SUM(F5:F1200))</f>
+        <f>(SUMIF(G5:G1200, "nose", F5:F1200)/SUM(F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="12"/>
@@ -4259,7 +4259,7 @@
         <v>33</v>
       </c>
       <c r="M18" s="8" t="e">
-        <f>(SUMIF(G5:G1200, "'mouth'", F5:F1200)/SUM(F5:F1200))</f>
+        <f>(SUMIF(G5:G1200, "mouth", F5:F1200)/SUM(F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="12"/>
@@ -4323,7 +4323,7 @@
         <v>36</v>
       </c>
       <c r="M21" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'face'", I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "face", I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="13"/>
@@ -4345,7 +4345,7 @@
         <v>37</v>
       </c>
       <c r="M22" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'eyes'", I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "eyes", I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="13"/>
@@ -4367,7 +4367,7 @@
         <v>38</v>
       </c>
       <c r="M23" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'nose'", I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "nose", I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="12"/>
@@ -4388,7 +4388,7 @@
         <v>39</v>
       </c>
       <c r="M24" s="21" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'mouth'", I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "mouth", I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="12"/>
@@ -4409,7 +4409,7 @@
         <v>40</v>
       </c>
       <c r="M25" s="6">
-        <f>COUNTIFS(G5:G1200, "'face'", I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "face", I5:I1200, 1)</f>
         <v>0</v>
       </c>
       <c r="O25" s="12"/>
@@ -4430,7 +4430,7 @@
         <v>41</v>
       </c>
       <c r="M26" s="6">
-        <f>COUNTIFS(G5:G1200, "'eyes'", I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "eyes", I5:I1200, 1)</f>
         <v>0</v>
       </c>
       <c r="O26" s="12"/>
@@ -4451,7 +4451,7 @@
         <v>42</v>
       </c>
       <c r="M27" s="6">
-        <f>COUNTIFS(G5:G1200, "'nose'", I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "nose", I5:I1200, 1)</f>
         <v>0</v>
       </c>
       <c r="O27" s="12"/>
@@ -4472,7 +4472,7 @@
         <v>43</v>
       </c>
       <c r="M28" s="6">
-        <f>COUNTIFS(G5:G1200, "'mouth'", I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "mouth", I5:I1200, 1)</f>
         <v>0</v>
       </c>
       <c r="O28" s="12"/>
@@ -4493,7 +4493,7 @@
         <v>44</v>
       </c>
       <c r="M29" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'face'", I5:I1200, 1)/SUMIF(I5:I1200, 1, F5:F1200))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"face", I5:I1200, 1)/SUMIF(I5:I1200, 1, F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="12"/>
@@ -4515,7 +4515,7 @@
         <v>45</v>
       </c>
       <c r="M30" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'eyes'", I5:I1200, 1)/SUMIF(I5:I1200, 1, F5:F1200))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"eyes", I5:I1200, 1)/SUMIF(I5:I1200, 1, F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="12"/>
@@ -4536,7 +4536,7 @@
         <v>46</v>
       </c>
       <c r="M31" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'nose'", I5:I1200, 1)/SUMIF(I5:I1200, 1, F5:F1200))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"nose", I5:I1200, 1)/SUMIF(I5:I1200, 1, F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="12"/>
@@ -4558,7 +4558,7 @@
         <v>47</v>
       </c>
       <c r="M32" s="8" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'nose'", I5:I1200, 1)/SUMIF(I5:I1200, 1, F5:F1200))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"nose", I5:I1200, 1)/SUMIF(I5:I1200, 1, F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="12"/>
@@ -4621,7 +4621,7 @@
         <v>50</v>
       </c>
       <c r="M35" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'face'", I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "face", I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="12"/>
@@ -4642,7 +4642,7 @@
         <v>51</v>
       </c>
       <c r="M36" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'eyes'", I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "eyes", I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="12"/>
@@ -4663,7 +4663,7 @@
         <v>52</v>
       </c>
       <c r="M37" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'nose'", I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "nose", I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="12"/>
@@ -4684,7 +4684,7 @@
         <v>53</v>
       </c>
       <c r="M38" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'mouth'", I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "mouth", I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="12"/>
@@ -4705,7 +4705,7 @@
         <v>54</v>
       </c>
       <c r="M39" s="6">
-        <f>COUNTIFS(G5:G1200, "'face'", I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "face", I5:I1200, 2)</f>
         <v>0</v>
       </c>
       <c r="O39" s="12"/>
@@ -4726,7 +4726,7 @@
         <v>55</v>
       </c>
       <c r="M40" s="6">
-        <f>COUNTIFS(G5:G1200, "'eyes'", I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "eyes", I5:I1200, 2)</f>
         <v>0</v>
       </c>
       <c r="O40" s="33"/>
@@ -4747,7 +4747,7 @@
         <v>56</v>
       </c>
       <c r="M41" s="6">
-        <f>COUNTIFS(G5:G1200, "'nose'", I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "nose", I5:I1200, 2)</f>
         <v>0</v>
       </c>
       <c r="O41" s="12"/>
@@ -4768,7 +4768,7 @@
         <v>57</v>
       </c>
       <c r="M42" s="6">
-        <f>COUNTIFS(G5:G1200, "'mouth'", I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "mouth", I5:I1200, 2)</f>
         <v>0</v>
       </c>
       <c r="O42" s="12"/>
@@ -4789,7 +4789,7 @@
         <v>58</v>
       </c>
       <c r="M43" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'face'", I5:I1200, 2)/SUMIF(I5:I1200, 2, F5:F1200))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"face", I5:I1200, 2)/SUMIF(I5:I1200, 2, F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="12"/>
@@ -4810,7 +4810,7 @@
         <v>59</v>
       </c>
       <c r="M44" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'eyes'", I5:I1200, 2)/SUMIF(I5:I1200, 2, F5:F1200))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"eyes", I5:I1200, 2)/SUMIF(I5:I1200, 2, F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="12"/>
@@ -4831,7 +4831,7 @@
         <v>60</v>
       </c>
       <c r="M45" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'nose'", I5:I1200, 2)/SUMIF(I5:I1200, 2, F5:F1200))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"nose", I5:I1200, 2)/SUMIF(I5:I1200, 2, F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="12"/>
@@ -4852,7 +4852,7 @@
         <v>61</v>
       </c>
       <c r="M46" s="8" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'mouth'", I5:I1200, 2)/SUMIF(I5:I1200, 2, F5:F1200))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"mouth", I5:I1200, 2)/SUMIF(I5:I1200, 2, F5:F1200))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="12"/>
@@ -4915,7 +4915,7 @@
         <v>64</v>
       </c>
       <c r="M49" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'face'", H5:H1200, 1, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "face", H5:H1200, 1, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="12"/>
@@ -4936,7 +4936,7 @@
         <v>65</v>
       </c>
       <c r="M50" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'eyes'", H5:H1200, 1, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "eyes", H5:H1200, 1, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="12"/>
@@ -4957,7 +4957,7 @@
         <v>66</v>
       </c>
       <c r="M51" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'nose'", H5:H1200, 1, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "nose", H5:H1200, 1, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="12"/>
@@ -4978,7 +4978,7 @@
         <v>67</v>
       </c>
       <c r="M52" s="21" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'mouth'", H5:H1200, 1, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "mouth", H5:H1200, 1, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="12"/>
@@ -4999,7 +4999,7 @@
         <v>68</v>
       </c>
       <c r="M53" s="6">
-        <f>COUNTIFS(G5:G1200, "'face'", H5:H1200, 1,  I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "face", H5:H1200, 1,  I5:I1200, 1)</f>
         <v>0</v>
       </c>
       <c r="O53" s="12"/>
@@ -5020,7 +5020,7 @@
         <v>69</v>
       </c>
       <c r="M54" s="6">
-        <f>COUNTIFS(G5:G1200, "'eyes'", H5:H1200, 1,  I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "eyes", H5:H1200, 1,  I5:I1200, 1)</f>
         <v>0</v>
       </c>
       <c r="O54" s="12"/>
@@ -5041,7 +5041,7 @@
         <v>70</v>
       </c>
       <c r="M55" s="6">
-        <f>COUNTIFS(G5:G1200, "'nose'", H5:H1200, 1,  I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "nose", H5:H1200, 1,  I5:I1200, 1)</f>
         <v>0</v>
       </c>
       <c r="O55" s="12"/>
@@ -5062,7 +5062,7 @@
         <v>71</v>
       </c>
       <c r="M56" s="6">
-        <f>COUNTIFS(G5:G1200, "'mouth'", H5:H1200, 1, I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "mouth", H5:H1200, 1, I5:I1200, 1)</f>
         <v>0</v>
       </c>
       <c r="O56" s="12"/>
@@ -5083,7 +5083,7 @@
         <v>72</v>
       </c>
       <c r="M57" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'face'", H5:H1200, 1, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 1))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"face", H5:H1200, 1, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 1))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O57" s="12"/>
@@ -5104,7 +5104,7 @@
         <v>73</v>
       </c>
       <c r="M58" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'eyes'", H5:H1200, 1, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 1))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"eyes", H5:H1200, 1, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 1))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O58" s="33"/>
@@ -5125,7 +5125,7 @@
         <v>74</v>
       </c>
       <c r="M59" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'nose'", H5:H1200, 1, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 1))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"nose", H5:H1200, 1, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 1))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O59" s="12"/>
@@ -5146,7 +5146,7 @@
         <v>75</v>
       </c>
       <c r="M60" s="8" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'mouth'", H5:H1200, 1, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 1))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"mouth", H5:H1200, 1, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 1))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O60" s="12"/>
@@ -5205,7 +5205,7 @@
         <v>78</v>
       </c>
       <c r="M63" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'face'", H5:H1200, 1, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "face", H5:H1200, 1, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q63" s="16"/>
@@ -5222,7 +5222,7 @@
         <v>79</v>
       </c>
       <c r="M64" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'eyes'", H5:H1200, 1, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "eyes", H5:H1200, 1, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q64" s="16"/>
@@ -5239,7 +5239,7 @@
         <v>80</v>
       </c>
       <c r="M65" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'nose'", H5:H1200, 1, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "nose", H5:H1200, 1, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q65" s="16"/>
@@ -5256,7 +5256,7 @@
         <v>81</v>
       </c>
       <c r="M66" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'mouth'", H5:H1200, 1, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "mouth", H5:H1200, 1, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="16"/>
@@ -5273,7 +5273,7 @@
         <v>82</v>
       </c>
       <c r="M67" s="6">
-        <f>COUNTIFS(G5:G1200, "'face'", H5:H1200, 1, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "face", H5:H1200, 1, I5:I1200, 2)</f>
         <v>0</v>
       </c>
       <c r="Q67" s="16"/>
@@ -5290,7 +5290,7 @@
         <v>83</v>
       </c>
       <c r="M68" s="6">
-        <f>COUNTIFS(G5:G1200, "'eyes'", H5:H1200, 1, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "eyes", H5:H1200, 1, I5:I1200, 2)</f>
         <v>0</v>
       </c>
       <c r="Q68" s="16"/>
@@ -5307,7 +5307,7 @@
         <v>84</v>
       </c>
       <c r="M69" s="6">
-        <f>COUNTIFS(G5:G1200, "'nose'", H5:H1200, 1, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "nose", H5:H1200, 1, I5:I1200, 2)</f>
         <v>0</v>
       </c>
       <c r="Q69" s="16"/>
@@ -5324,7 +5324,7 @@
         <v>85</v>
       </c>
       <c r="M70" s="6">
-        <f>COUNTIFS(G5:G1200, "'mouth'", H5:H1200, 1, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "mouth", H5:H1200, 1, I5:I1200, 2)</f>
         <v>0</v>
       </c>
       <c r="Q70" s="16"/>
@@ -5341,7 +5341,7 @@
         <v>86</v>
       </c>
       <c r="M71" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'face'", H5:H1200, 1, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 1, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"face", H5:H1200, 1, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 1, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q71" s="16"/>
@@ -5358,7 +5358,7 @@
         <v>87</v>
       </c>
       <c r="M72" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'eyes'", H5:H1200, 1, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 1, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"eyes", H5:H1200, 1, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 1, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q72" s="16"/>
@@ -5375,7 +5375,7 @@
         <v>88</v>
       </c>
       <c r="M73" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'nose'", H5:H1200, 1, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 1, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"nose", H5:H1200, 1, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 1, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
         <v>89</v>
       </c>
       <c r="M74" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'mouth'", H5:H1200, 1, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 1, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"mouth", H5:H1200, 1, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 1, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
         <v>92</v>
       </c>
       <c r="M77" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'face'", H5:H1200, 2, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "face", H5:H1200, 2, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
         <v>93</v>
       </c>
       <c r="M78" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'eyes'", H5:H1200, 2, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "eyes", H5:H1200, 2, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
         <v>94</v>
       </c>
       <c r="M79" s="24" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'nose'", H5:H1200, 2, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "nose", H5:H1200, 2, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
         <v>95</v>
       </c>
       <c r="M80" s="21" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'mouth'", H5:H1200, 2, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "mouth", H5:H1200, 2, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5503,7 +5503,7 @@
         <v>96</v>
       </c>
       <c r="M81" s="6">
-        <f>COUNTIFS(G5:G1200, "'face'", H5:H1200, 2,  I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "face", H5:H1200, 2,  I5:I1200, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
         <v>97</v>
       </c>
       <c r="M82" s="6">
-        <f>COUNTIFS(G5:G1200, "'eyes'", H5:H1200, 2,  I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "eyes", H5:H1200, 2,  I5:I1200, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
         <v>98</v>
       </c>
       <c r="M83" s="6">
-        <f>COUNTIFS(G5:G1200, "'nose'", H5:H1200, 2,  I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "nose", H5:H1200, 2,  I5:I1200, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
         <v>99</v>
       </c>
       <c r="M84" s="6">
-        <f>COUNTIFS(G5:G1200, "'mouth'", H5:H1200, 2, I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "mouth", H5:H1200, 2, I5:I1200, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
         <v>100</v>
       </c>
       <c r="M85" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'face'", H5:H1200, 2, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"face", H5:H1200, 2, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
         <v>101</v>
       </c>
       <c r="M86" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'eyes'", H5:H1200, 2, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"eyes", H5:H1200, 2, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
         <v>102</v>
       </c>
       <c r="M87" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'nose'", H5:H1200, 2, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"nose", H5:H1200, 2, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>103</v>
       </c>
       <c r="M88" s="8" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'mouth'", H5:H1200, 2, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"mouth", H5:H1200, 2, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
         <v>115</v>
       </c>
       <c r="M91" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'face'", H5:H1200, 2, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "face", H5:H1200, 2, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
         <v>114</v>
       </c>
       <c r="M92" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'eyes'", H5:H1200, 2, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "eyes", H5:H1200, 2, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
         <v>113</v>
       </c>
       <c r="M93" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'nose'", H5:H1200, 2, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "nose", H5:H1200, 2, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
         <v>112</v>
       </c>
       <c r="M94" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'mouth'", H5:H1200, 2, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "mouth", H5:H1200, 2, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
         <v>111</v>
       </c>
       <c r="M95" s="6">
-        <f>COUNTIFS(G5:G1200, "'face'", H5:H1200, 2, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "face", H5:H1200, 2, I5:I1200, 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
         <v>110</v>
       </c>
       <c r="M96" s="6">
-        <f>COUNTIFS(G5:G1200, "'eyes'", H5:H1200, 2, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "eyes", H5:H1200, 2, I5:I1200, 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
         <v>109</v>
       </c>
       <c r="M97" s="6">
-        <f>COUNTIFS(G5:G1200, "'nose'", H5:H1200, 2, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "nose", H5:H1200, 2, I5:I1200, 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
         <v>108</v>
       </c>
       <c r="M98" s="6">
-        <f>COUNTIFS(G5:G1200, "'mouth'", H5:H1200, 2, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "mouth", H5:H1200, 2, I5:I1200, 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
         <v>107</v>
       </c>
       <c r="M99" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'face'", H5:H1200, 2, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 2, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"face", H5:H1200, 2, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 2, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
         <v>106</v>
       </c>
       <c r="M100" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'eyes'", H5:H1200, 2, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 2, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"eyes", H5:H1200, 2, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 2, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
         <v>105</v>
       </c>
       <c r="M101" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'nose'", H5:H1200, 2, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 2, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"nose", H5:H1200, 2, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 2, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
         <v>104</v>
       </c>
       <c r="M102" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'mouth'", H5:H1200, 2, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 2, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"mouth", H5:H1200, 2, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 2, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
         <v>120</v>
       </c>
       <c r="M105" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'face'", H5:H1200, 3, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "face", H5:H1200, 3, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
         <v>121</v>
       </c>
       <c r="M106" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'eyes'", H5:H1200, 3, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "eyes", H5:H1200, 3, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
         <v>122</v>
       </c>
       <c r="M107" s="24" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'nose'", H5:H1200, 3, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "nose", H5:H1200, 3, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5935,7 +5935,7 @@
         <v>123</v>
       </c>
       <c r="M108" s="21" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'mouth'", H5:H1200, 3, I5:I1200, 1)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "mouth", H5:H1200, 3, I5:I1200, 1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
         <v>124</v>
       </c>
       <c r="M109" s="6">
-        <f>COUNTIFS(G5:G1200, "'face'", H5:H1200, 3,  I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "face", H5:H1200, 3,  I5:I1200, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
         <v>125</v>
       </c>
       <c r="M110" s="6">
-        <f>COUNTIFS(G5:G1200, "'eyes'", H5:H1200, 3,  I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "eyes", H5:H1200, 3,  I5:I1200, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
         <v>126</v>
       </c>
       <c r="M111" s="6">
-        <f>COUNTIFS(G5:G1200, "'nose'", H5:H1200, 3,  I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "nose", H5:H1200, 3,  I5:I1200, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
         <v>127</v>
       </c>
       <c r="M112" s="6">
-        <f>COUNTIFS(G5:G1200, "'mouth'", H5:H1200, 3, I5:I1200, 1)</f>
+        <f>COUNTIFS(G5:G1200, "mouth", H5:H1200, 3, I5:I1200, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
         <v>128</v>
       </c>
       <c r="M113" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'face'", H5:H1200, 3, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 3))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"face", H5:H1200, 3, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 3))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
         <v>129</v>
       </c>
       <c r="M114" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'eyes'", H5:H1200, 3, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 3))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"eyes", H5:H1200, 3, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 3))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
         <v>130</v>
       </c>
       <c r="M115" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'nose'", H5:H1200, 3, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 3))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"nose", H5:H1200, 3, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 3))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
         <v>131</v>
       </c>
       <c r="M116" s="8" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'mouth'", H5:H1200, 3, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 3))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"mouth", H5:H1200, 3, I5:I1200, 1)/SUMIFS(F5:F1200, I5:I1200, 1, H5:H1200, 3))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
         <v>134</v>
       </c>
       <c r="M119" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'face'", H5:H1200, 3, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "face", H5:H1200, 3, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
         <v>135</v>
       </c>
       <c r="M120" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'eyes'", H5:H1200, 3, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "eyes", H5:H1200, 3, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
         <v>136</v>
       </c>
       <c r="M121" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'nose'", H5:H1200, 3, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "nose", H5:H1200, 3, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
         <v>137</v>
       </c>
       <c r="M122" s="5" t="e">
-        <f>AVERAGEIFS(F5:F1200, G5:G1200, "'mouth'", H5:H1200, 3, I5:I1200, 2)</f>
+        <f>AVERAGEIFS(F5:F1200, G5:G1200, "mouth", H5:H1200, 3, I5:I1200, 2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
         <v>138</v>
       </c>
       <c r="M123" s="6">
-        <f>COUNTIFS(G5:G1200, "'face'", H5:H1200, 3, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "face", H5:H1200, 3, I5:I1200, 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
         <v>139</v>
       </c>
       <c r="M124" s="6">
-        <f>COUNTIFS(G5:G1200, "'eyes'", H5:H1200, 3, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "eyes", H5:H1200, 3, I5:I1200, 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
         <v>140</v>
       </c>
       <c r="M125" s="6">
-        <f>COUNTIFS(G5:G1200, "'nose'", H5:H1200, 3, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "nose", H5:H1200, 3, I5:I1200, 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
         <v>141</v>
       </c>
       <c r="M126" s="6">
-        <f>COUNTIFS(G5:G1200, "'mouth'", H5:H1200, 3, I5:I1200, 2)</f>
+        <f>COUNTIFS(G5:G1200, "mouth", H5:H1200, 3, I5:I1200, 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
         <v>142</v>
       </c>
       <c r="M127" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'face'", H5:H1200, 3, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 3, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"face", H5:H1200, 3, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 3, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
         <v>143</v>
       </c>
       <c r="M128" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'eyes'", H5:H1200, 3, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 3, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"eyes", H5:H1200, 3, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 3, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
         <v>144</v>
       </c>
       <c r="M129" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'nose'", H5:H1200, 3, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 3, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"nose", H5:H1200, 3, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 3, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
         <v>145</v>
       </c>
       <c r="M130" s="11" t="e">
-        <f>(SUMIFS(F5:F1200, G5:G1200,"'mouth'", H5:H1200, 3, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 3, I5:I1200, 2))</f>
+        <f>(SUMIFS(F5:F1200, G5:G1200,"mouth", H5:H1200, 3, I5:I1200, 2)/SUMIFS(F5:F1200, H5:H1200, 3, I5:I1200, 2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10209,15 +10209,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="R58:S58"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R22:S22"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="R58:S58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel_template/Fixation&ROI_template.xlsx
+++ b/excel_template/Fixation&ROI_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="9435" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="285" windowWidth="9435" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="results.roi" sheetId="1" r:id="rId1"/>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,7 @@
         <v>178</v>
       </c>
       <c r="L5" s="10" t="e">
-        <f>AVERAGEIF(F5:F250, "&gt;0")</f>
+        <f>AVERAGEIF(F5:F556, "&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M5" s="32"/>
@@ -1153,7 +1153,7 @@
         <v>179</v>
       </c>
       <c r="L6" s="10" t="e">
-        <f>AVERAGEIF(G5:G250, "&gt;0")</f>
+        <f>AVERAGEIF(G5:G556, "&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M6" s="12"/>
@@ -1174,7 +1174,7 @@
         <v>180</v>
       </c>
       <c r="L7" s="10" t="e">
-        <f>AVERAGEIF(H5:H250, "&gt;0")</f>
+        <f>AVERAGEIF(H5:H556, "&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M7" s="12"/>
@@ -1195,7 +1195,7 @@
         <v>181</v>
       </c>
       <c r="L8" s="10" t="e">
-        <f>AVERAGEIF(I5:I250,"&gt;0")</f>
+        <f>AVERAGEIF(I5:I556,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="12"/>
@@ -1216,7 +1216,7 @@
         <v>146</v>
       </c>
       <c r="L9" s="10" t="e">
-        <f>AVERAGEIFS(F5:F300, F5:F300, "&gt;0", C5:C300, "=1")</f>
+        <f>AVERAGEIFS(F5:F556, F5:F556, "&gt;0", C5:C556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="12"/>
@@ -1237,7 +1237,7 @@
         <v>147</v>
       </c>
       <c r="L10" s="10" t="e">
-        <f>AVERAGEIFS(G5:G300, G5:G300, "&gt;0", C5:C300, "=1")</f>
+        <f>AVERAGEIFS(G5:G556, G5:G556, "&gt;0", C5:C556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="32"/>
@@ -1258,7 +1258,7 @@
         <v>148</v>
       </c>
       <c r="L11" s="10" t="e">
-        <f>AVERAGEIFS(H5:H300, H5:H300, "&gt;0", C5:C300, "=1")</f>
+        <f>AVERAGEIFS(H5:H556, H5:H556, "&gt;0", C5:C556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M11" s="12"/>
@@ -1279,7 +1279,7 @@
         <v>149</v>
       </c>
       <c r="L12" s="10" t="e">
-        <f>AVERAGEIFS(I5:I300, I5:I300, "&gt;0", C5:C300, "=1")</f>
+        <f>AVERAGEIFS(I5:I556, I5:I556, "&gt;0", C5:C556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="12"/>
@@ -1300,7 +1300,7 @@
         <v>150</v>
       </c>
       <c r="L13" s="10" t="e">
-        <f>AVERAGEIFS(F5:F300, F5:F300, "&gt;0", C5:C300, "=2")</f>
+        <f>AVERAGEIFS(F5:F556, F5:F556, "&gt;0", C5:C556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="12"/>
@@ -1321,7 +1321,7 @@
         <v>151</v>
       </c>
       <c r="L14" s="10" t="e">
-        <f>AVERAGEIFS(G5:G300, G5:G300, "&gt;0", C5:C300, "=2")</f>
+        <f>AVERAGEIFS(G5:G556, G5:G556, "&gt;0", C5:C556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M14" s="12"/>
@@ -1342,7 +1342,7 @@
         <v>152</v>
       </c>
       <c r="L15" s="10" t="e">
-        <f>AVERAGEIFS(H5:H300, H5:H300, "&gt;0", C5:C300, "=2")</f>
+        <f>AVERAGEIFS(H5:H556, H5:H556, "&gt;0", C5:C556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="32"/>
@@ -1363,7 +1363,7 @@
         <v>153</v>
       </c>
       <c r="L16" s="10" t="e">
-        <f>AVERAGEIFS(I5:I300, I5:I300, "&gt;0", C5:C300, "=2")</f>
+        <f>AVERAGEIFS(I5:I556, I5:I556, "&gt;0", C5:C556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="12"/>
@@ -1384,7 +1384,7 @@
         <v>154</v>
       </c>
       <c r="L17" s="10" t="e">
-        <f>AVERAGEIFS(F5:F300, F5:F300, "&gt;0", C5:C300, "=1", D5:D300, "=1")</f>
+        <f>AVERAGEIFS(F5:F556, F5:F556, "&gt;0", C5:C556, "=1", D5:D556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="12"/>
@@ -1405,7 +1405,7 @@
         <v>155</v>
       </c>
       <c r="L18" s="10" t="e">
-        <f>AVERAGEIFS(G5:G300, G5:G300, "&gt;0", C5:C300, "=1", D5:D300, "=1")</f>
+        <f>AVERAGEIFS(G5:G556, G5:G556, "&gt;0", C5:C556, "=1", D5:D556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="12"/>
@@ -1426,7 +1426,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="10" t="e">
-        <f>AVERAGEIFS(H5:H300, H5:H300, "&gt;0", C5:C300, "=1", D5:D300, "=1")</f>
+        <f>AVERAGEIFS(H5:H556, H5:H556, "&gt;0", C5:C556, "=1", D5:D556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="12"/>
@@ -1447,7 +1447,7 @@
         <v>157</v>
       </c>
       <c r="L20" s="10" t="e">
-        <f>AVERAGEIFS(I5:I300, I5:I300, "&gt;0", C5:C300, "=1", D5:D300, "=1")</f>
+        <f>AVERAGEIFS(I5:I556, I5:I556, "&gt;0", C5:C556, "=1", D5:D556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="32"/>
@@ -1468,7 +1468,7 @@
         <v>177</v>
       </c>
       <c r="L21" s="10" t="e">
-        <f>AVERAGEIFS(F5:F300, F5:F300, "&gt;0", C5:C300, "=2", D5:D300, "=1")</f>
+        <f>AVERAGEIFS(F5:F556, F5:F556, "&gt;0", C5:C556, "=2", D5:D556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="12"/>
@@ -1489,7 +1489,7 @@
         <v>176</v>
       </c>
       <c r="L22" s="10" t="e">
-        <f>AVERAGEIFS(G5:G300, G5:G300, "&gt;0", C5:C300, "=2", D5:D300, "=1")</f>
+        <f>AVERAGEIFS(G5:G556, G5:G556, "&gt;0", C5:C556, "=2", D5:D556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>175</v>
       </c>
       <c r="L23" s="10" t="e">
-        <f>AVERAGEIFS(H5:H300, H5:H300, "&gt;0", C5:C300, "=2", D5:D300, "=1")</f>
+        <f>AVERAGEIFS(H5:H556, H5:H556, "&gt;0", C5:C556, "=2", D5:D556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
         <v>174</v>
       </c>
       <c r="L24" s="10" t="e">
-        <f>AVERAGEIFS(I5:I300, I5:I300, "&gt;0", C5:C300, "=2", D5:D300, "=1")</f>
+        <f>AVERAGEIFS(I5:I556, I5:I556, "&gt;0", C5:C556, "=2", D5:D556, "=1")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
         <v>158</v>
       </c>
       <c r="L25" s="10" t="e">
-        <f>AVERAGEIFS(F5:F300, F5:F300, "&gt;0", C5:C300, "=1", D5:D300, "=2")</f>
+        <f>AVERAGEIFS(F5:F556, F5:F556, "&gt;0", C5:C556, "=1", D5:D556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
         <v>159</v>
       </c>
       <c r="L26" s="10" t="e">
-        <f>AVERAGEIFS(G5:G300, G5:G300, "&gt;0", C5:C300, "=1", D5:D300, "=2")</f>
+        <f>AVERAGEIFS(G5:G556, G5:G556, "&gt;0", C5:C556, "=1", D5:D556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
         <v>160</v>
       </c>
       <c r="L27" s="10" t="e">
-        <f>AVERAGEIFS(H5:H300, H5:H300, "&gt;0", C5:C300, "=1", D5:D300, "=2")</f>
+        <f>AVERAGEIFS(H5:H556, H5:H556, "&gt;0", C5:C556, "=1", D5:D556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
         <v>161</v>
       </c>
       <c r="L28" s="10" t="e">
-        <f>AVERAGEIFS(I5:I300, I5:I300, "&gt;0", C5:C300, "=1", D5:D300, "=2")</f>
+        <f>AVERAGEIFS(I5:I556, I5:I556, "&gt;0", C5:C556, "=1", D5:D556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>173</v>
       </c>
       <c r="L29" s="10" t="e">
-        <f>AVERAGEIFS(F5:F300, F5:F300, "&gt;0", C5:C300, "=2", D5:D300, "=2")</f>
+        <f>AVERAGEIFS(F5:F556, F5:F556, "&gt;0", C5:C556, "=2", D5:D556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
         <v>172</v>
       </c>
       <c r="L30" s="10" t="e">
-        <f>AVERAGEIFS(G5:G300, G5:G300, "&gt;0", C5:C300, "=2", D5:D300, "=2")</f>
+        <f>AVERAGEIFS(G5:G556, G5:G556, "&gt;0", C5:C556, "=2", D5:D556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
         <v>171</v>
       </c>
       <c r="L31" s="10" t="e">
-        <f>AVERAGEIFS(H5:H300, H5:H300, "&gt;0", C5:C300, "=2", D5:D300, "=2")</f>
+        <f>AVERAGEIFS(H5:H556, H5:H556, "&gt;0", C5:C556, "=2", D5:D556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
         <v>170</v>
       </c>
       <c r="L32" s="10" t="e">
-        <f>AVERAGEIFS(I5:I300, I5:I300, "&gt;0", C5:C300, "=2", D5:D300, "=2")</f>
+        <f>AVERAGEIFS(I5:I556, I5:I556, "&gt;0", C5:C556, "=2", D5:D556, "=2")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
         <v>162</v>
       </c>
       <c r="L33" s="10" t="e">
-        <f>AVERAGEIFS(F5:F300, F5:F300, "&gt;0", C5:C300, "=1", D5:D300, "=3")</f>
+        <f>AVERAGEIFS(F5:F556, F5:F556, "&gt;0", C5:C556, "=1", D5:D556, "=3")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
         <v>163</v>
       </c>
       <c r="L34" s="10" t="e">
-        <f>AVERAGEIFS(G5:G300, G5:G300, "&gt;0", C5:C300, "=1", D5:D300, "=3")</f>
+        <f>AVERAGEIFS(G5:G556, G5:G556, "&gt;0", C5:C556, "=1", D5:D556, "=3")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
         <v>164</v>
       </c>
       <c r="L35" s="10" t="e">
-        <f>AVERAGEIFS(H5:H300, H5:H300, "&gt;0", C5:C300, "=1", D5:D300, "=3")</f>
+        <f>AVERAGEIFS(H5:H556, H5:H556, "&gt;0", C5:C556, "=1", D5:D556, "=3")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
         <v>165</v>
       </c>
       <c r="L36" s="10" t="e">
-        <f>AVERAGEIFS(I5:I300, I5:I300, "&gt;0", C5:C300, "=1", D5:D300, "=3")</f>
+        <f>AVERAGEIFS(I5:I556, I5:I556, "&gt;0", C5:C556, "=1", D5:D556, "=3")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>169</v>
       </c>
       <c r="L37" s="10" t="e">
-        <f>AVERAGEIFS(F5:F300, F5:F300, "&gt;0", C5:C300, "=2", D5:D300, "=3")</f>
+        <f>AVERAGEIFS(F5:F556, F5:F556, "&gt;0", C5:C556, "=2", D5:D556, "=3")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
         <v>168</v>
       </c>
       <c r="L38" s="10" t="e">
-        <f>AVERAGEIFS(G5:G300, G5:G300, "&gt;0", C5:C300, "=2", D5:D300, "=3")</f>
+        <f>AVERAGEIFS(G5:G556, G5:G556, "&gt;0", C5:C556, "=2", D5:D556, "=3")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>167</v>
       </c>
       <c r="L39" s="10" t="e">
-        <f>AVERAGEIFS(H5:H300, H5:H300, "&gt;0", C5:C300, "=2", D5:D300, "=3")</f>
+        <f>AVERAGEIFS(H5:H556, H5:H556, "&gt;0", C5:C556, "=2", D5:D556, "=3")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
         <v>166</v>
       </c>
       <c r="L40" s="10" t="e">
-        <f>AVERAGEIFS(I5:I300, I5:I300, "&gt;0", C5:C300, "=2", D5:D300, "=3")</f>
+        <f>AVERAGEIFS(I5:I556, I5:I556, "&gt;0", C5:C556, "=2", D5:D556, "=3")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
   <dimension ref="A1:S565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M5" sqref="M5:M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
